--- a/CapNhatGioChamCong/ChamCong_v05/Book1.xlsx
+++ b/CapNhatGioChamCong/ChamCong_v05/Book1.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="18195" windowHeight="6975"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="ky hieu" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Công</t>
   </si>
@@ -79,6 +80,51 @@
   </si>
   <si>
     <t>Tổng giờ làm</t>
+  </si>
+  <si>
+    <t>mã nv</t>
+  </si>
+  <si>
+    <t>tên nv0</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>ký hiệu ca</t>
+  </si>
+  <si>
+    <t>xp vắng</t>
+  </si>
+  <si>
+    <t>tổng công</t>
+  </si>
+  <si>
+    <t>phụ cấp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tổng giờ làm </t>
+  </si>
+  <si>
+    <t>tổng giờ check vân tay</t>
+  </si>
+  <si>
+    <t>trễ</t>
+  </si>
+  <si>
+    <t>sớm</t>
+  </si>
+  <si>
+    <t>tổng giờ làm đêm</t>
+  </si>
+  <si>
+    <t>tổng giờ làm tăng cường</t>
+  </si>
+  <si>
+    <t>k200</t>
+  </si>
+  <si>
+    <t>an</t>
   </si>
 </sst>
 </file>
@@ -114,9 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +465,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="4.625" customWidth="1"/>
+    <col min="11" max="11" width="6.625" customWidth="1"/>
+    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,7 +641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -526,7 +653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/CapNhatGioChamCong/ChamCong_v05/Book1.xlsx
+++ b/CapNhatGioChamCong/ChamCong_v05/Book1.xlsx
@@ -468,7 +468,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,15 +545,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,19 +564,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.97</v>
       </c>
@@ -581,63 +581,75 @@
         <v>0.31</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
